--- a/data/mv_inputs/inputs_test.xlsx
+++ b/data/mv_inputs/inputs_test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NVG9HXP\Documents\Projects\UPS_MV\data\inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NVG9HXP\Documents\Projects\UPS_MV\data\mv_inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A25E10FA-7EFB-471F-8DB3-4FCD03F6AA8D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAAFEF26-913A-4636-BFF1-92F8D0C53377}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{320D0BAC-4B29-4FF6-9D3E-29DC1831E97B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{320D0BAC-4B29-4FF6-9D3E-29DC1831E97B}"/>
   </bookViews>
   <sheets>
     <sheet name="fi" sheetId="8" r:id="rId1"/>
@@ -2999,7 +2999,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A6"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3033,24 +3033,24 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="B3">
-        <v>0.20261690946442354</v>
+        <v>4.7647051077905678E-2</v>
       </c>
       <c r="C3">
-        <v>0.20140740249674263</v>
+        <v>5.3061384336615877E-2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="B4">
-        <v>0.16192639843947809</v>
+        <v>0.20261690946442354</v>
       </c>
       <c r="C4">
-        <v>0.18032677085918003</v>
+        <v>0.20140740249674263</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -3066,13 +3066,13 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B6">
-        <v>4.7647051077905678E-2</v>
+        <v>0.16192639843947809</v>
       </c>
       <c r="C6">
-        <v>5.3061384336615877E-2</v>
+        <v>0.18032677085918003</v>
       </c>
     </row>
   </sheetData>
@@ -3187,7 +3187,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3301,7 +3301,7 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="C10" t="s">
         <v>14</v>
@@ -3312,7 +3312,7 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
         <v>14</v>
@@ -3334,7 +3334,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
         <v>14</v>
@@ -3361,7 +3361,7 @@
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3395,16 +3395,16 @@
         <v>43</v>
       </c>
       <c r="J1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K1" t="s">
         <v>15</v>
-      </c>
-      <c r="K1" t="s">
-        <v>44</v>
       </c>
       <c r="L1" t="s">
         <v>45</v>
       </c>
       <c r="M1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="N1" t="s">
         <v>16</v>
@@ -3439,16 +3439,16 @@
         <v>-0.34319048449093764</v>
       </c>
       <c r="J2">
+        <v>-0.28015538168763959</v>
+      </c>
+      <c r="K2">
         <v>-0.41010115388652973</v>
-      </c>
-      <c r="K2">
-        <v>2.9624440552832563E-2</v>
       </c>
       <c r="L2">
         <v>-0.17691263599522505</v>
       </c>
       <c r="M2">
-        <v>-0.28015538168763959</v>
+        <v>2.9624440552832563E-2</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -3483,16 +3483,16 @@
         <v>0.73842949585957562</v>
       </c>
       <c r="J3">
+        <v>0.73450022033566642</v>
+      </c>
+      <c r="K3">
         <v>0.71349853706241007</v>
-      </c>
-      <c r="K3">
-        <v>0.58139303333914849</v>
       </c>
       <c r="L3">
         <v>0.82623005712820619</v>
       </c>
       <c r="M3">
-        <v>0.73450022033566642</v>
+        <v>0.58139303333914849</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -3527,16 +3527,16 @@
         <v>-0.34807566388405237</v>
       </c>
       <c r="J4">
+        <v>-0.28156438156692476</v>
+      </c>
+      <c r="K4">
         <v>-0.41315037694604584</v>
-      </c>
-      <c r="K4">
-        <v>2.8032283844567397E-2</v>
       </c>
       <c r="L4">
         <v>-0.18234928199095313</v>
       </c>
       <c r="M4">
-        <v>-0.28156438156692476</v>
+        <v>2.8032283844567397E-2</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -3571,16 +3571,16 @@
         <v>-0.34411851259697773</v>
       </c>
       <c r="J5">
+        <v>-0.28693452726348623</v>
+      </c>
+      <c r="K5">
         <v>-0.41545176304356612</v>
-      </c>
-      <c r="K5">
-        <v>2.9739406440810256E-2</v>
       </c>
       <c r="L5">
         <v>-0.17832247139676755</v>
       </c>
       <c r="M5">
-        <v>-0.28693452726348623</v>
+        <v>2.9739406440810256E-2</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -3615,16 +3615,16 @@
         <v>-0.34700849855278881</v>
       </c>
       <c r="J6">
+        <v>-0.28443527118656947</v>
+      </c>
+      <c r="K6">
         <v>-0.41479234473771243</v>
-      </c>
-      <c r="K6">
-        <v>2.7234874888821762E-2</v>
       </c>
       <c r="L6">
         <v>-0.18262826722981038</v>
       </c>
       <c r="M6">
-        <v>-0.28443527118656947</v>
+        <v>2.7234874888821762E-2</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -3703,16 +3703,16 @@
         <v>0.78543195209789862</v>
       </c>
       <c r="J8">
+        <v>0.77999044320448574</v>
+      </c>
+      <c r="K8">
         <v>0.75063545367843221</v>
-      </c>
-      <c r="K8">
-        <v>0.58617947710198093</v>
       </c>
       <c r="L8">
         <v>0.85205939394916352</v>
       </c>
       <c r="M8">
-        <v>0.77999044320448574</v>
+        <v>0.58617947710198093</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -3747,16 +3747,16 @@
         <v>1.0000000000000002</v>
       </c>
       <c r="J9">
+        <v>0.8908994627619381</v>
+      </c>
+      <c r="K9">
         <v>0.8785317554075851</v>
-      </c>
-      <c r="K9">
-        <v>0.72568127768941804</v>
       </c>
       <c r="L9">
         <v>0.83136894829653574</v>
       </c>
       <c r="M9">
-        <v>0.8908994627619381</v>
+        <v>0.72568127768941804</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -3764,43 +3764,43 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="B10">
-        <v>-0.41010115388652973</v>
+        <v>-0.28015538168763959</v>
       </c>
       <c r="C10">
-        <v>0.71349853706241007</v>
+        <v>0.73450022033566642</v>
       </c>
       <c r="D10">
-        <v>-0.41315037694604584</v>
+        <v>-0.28156438156692476</v>
       </c>
       <c r="E10">
-        <v>-0.41545176304356612</v>
+        <v>-0.28693452726348623</v>
       </c>
       <c r="F10">
-        <v>-0.41479234473771243</v>
+        <v>-0.28443527118656947</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.75063545367843221</v>
+        <v>0.77999044320448574</v>
       </c>
       <c r="I10">
-        <v>0.8785317554075851</v>
+        <v>0.8908994627619381</v>
       </c>
       <c r="J10">
-        <v>1.0000000000000002</v>
+        <v>1</v>
       </c>
       <c r="K10">
-        <v>0.68093838344326807</v>
+        <v>0.84122704870802467</v>
       </c>
       <c r="L10">
-        <v>0.76831557343673462</v>
+        <v>0.82092681924692923</v>
       </c>
       <c r="M10">
-        <v>0.84122704870802467</v>
+        <v>0.65360264904246423</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -3808,43 +3808,43 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>2.9624440552832563E-2</v>
+        <v>-0.41010115388652973</v>
       </c>
       <c r="C11">
-        <v>0.58139303333914849</v>
+        <v>0.71349853706241007</v>
       </c>
       <c r="D11">
-        <v>2.8032283844567397E-2</v>
+        <v>-0.41315037694604584</v>
       </c>
       <c r="E11">
-        <v>2.9739406440810256E-2</v>
+        <v>-0.41545176304356612</v>
       </c>
       <c r="F11">
-        <v>2.7234874888821762E-2</v>
+        <v>-0.41479234473771243</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.58617947710198093</v>
+        <v>0.75063545367843221</v>
       </c>
       <c r="I11">
-        <v>0.72568127768941804</v>
+        <v>0.8785317554075851</v>
       </c>
       <c r="J11">
+        <v>0.84122704870802467</v>
+      </c>
+      <c r="K11">
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="L11">
+        <v>0.76831557343673462</v>
+      </c>
+      <c r="M11">
         <v>0.68093838344326807</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>0.72177693720786773</v>
-      </c>
-      <c r="M11">
-        <v>0.65360264904246423</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -3879,16 +3879,16 @@
         <v>0.83136894829653574</v>
       </c>
       <c r="J12">
+        <v>0.82092681924692923</v>
+      </c>
+      <c r="K12">
         <v>0.76831557343673462</v>
-      </c>
-      <c r="K12">
-        <v>0.72177693720786773</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.82092681924692923</v>
+        <v>0.72177693720786773</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -3896,40 +3896,40 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B13">
-        <v>-0.28015538168763959</v>
+        <v>2.9624440552832563E-2</v>
       </c>
       <c r="C13">
-        <v>0.73450022033566642</v>
+        <v>0.58139303333914849</v>
       </c>
       <c r="D13">
-        <v>-0.28156438156692476</v>
+        <v>2.8032283844567397E-2</v>
       </c>
       <c r="E13">
-        <v>-0.28693452726348623</v>
+        <v>2.9739406440810256E-2</v>
       </c>
       <c r="F13">
-        <v>-0.28443527118656947</v>
+        <v>2.7234874888821762E-2</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.77999044320448574</v>
+        <v>0.58617947710198093</v>
       </c>
       <c r="I13">
-        <v>0.8908994627619381</v>
+        <v>0.72568127768941804</v>
       </c>
       <c r="J13">
-        <v>0.84122704870802467</v>
+        <v>0.65360264904246423</v>
       </c>
       <c r="K13">
-        <v>0.65360264904246423</v>
+        <v>0.68093838344326807</v>
       </c>
       <c r="L13">
-        <v>0.82092681924692923</v>
+        <v>0.72177693720786773</v>
       </c>
       <c r="M13">
         <v>1</v>
@@ -3991,8 +3991,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D844A72-4DCA-4410-BA8A-3D7020172B23}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4069,10 +4069,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="B7">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="C7">
         <v>1.02</v>
@@ -4080,10 +4080,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="C8">
         <v>1.02</v>
@@ -4102,10 +4102,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B10">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="C10">
         <v>1.02</v>
@@ -4132,7 +4132,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4186,8 +4186,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{004C5978-1523-45E8-9638-ADDEC870128D}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4234,12 +4234,18 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>46</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>15</v>
+      </c>
+      <c r="B8">
+        <v>1.4999999999999999E-2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -4249,10 +4255,10 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B10">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">

--- a/data/mv_inputs/inputs_test.xlsx
+++ b/data/mv_inputs/inputs_test.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NVG9HXP\Documents\Projects\UPS_MV\data\mv_inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bloomberg\Documents\Projects\UPS_MV-git\data\mv_inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAAFEF26-913A-4636-BFF1-92F8D0C53377}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{320D0BAC-4B29-4FF6-9D3E-29DC1831E97B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="fi" sheetId="8" r:id="rId1"/>
@@ -33,7 +32,7 @@
     <definedName name="Funded_Status_Loadings">'[1]Factor Loadings'!$B$8:$B$23</definedName>
     <definedName name="Liability_OAD">[1]Control!$B$6</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -198,7 +197,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2877,7 +2876,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE3F7534-EB9E-4F9F-87AB-E15B7AD38F40}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2995,11 +2994,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45AD05FF-222A-4A06-9207-E13ACE5060C0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3081,7 +3080,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D172E73-4115-49E2-8C9D-698B4B6ACBDC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3183,7 +3182,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21F44247-EA38-4014-BE18-0C8DA5FB450F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3357,7 +3356,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FD446F1-0E0E-4D5C-897F-E147827EE883}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3988,7 +3987,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D844A72-4DCA-4410-BA8A-3D7020172B23}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4128,7 +4127,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2680E847-5D2B-4C25-916C-699E38D9C40C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4183,11 +4182,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{004C5978-1523-45E8-9638-ADDEC870128D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4237,7 +4236,7 @@
         <v>46</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1.4999999999999999E-2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -4251,6 +4250,9 @@
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>45</v>
+      </c>
+      <c r="B9">
+        <v>0.01</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">

--- a/data/mv_inputs/inputs_test.xlsx
+++ b/data/mv_inputs/inputs_test.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NVG9HXP\Documents\Projects\UPS_MV\data\inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bloomberg\Documents\Projects\UPS_MV-git\data\mv_inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A25E10FA-7EFB-471F-8DB3-4FCD03F6AA8D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{320D0BAC-4B29-4FF6-9D3E-29DC1831E97B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="fi" sheetId="8" r:id="rId1"/>
@@ -33,7 +32,7 @@
     <definedName name="Funded_Status_Loadings">'[1]Factor Loadings'!$B$8:$B$23</definedName>
     <definedName name="Liability_OAD">[1]Control!$B$6</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -198,7 +197,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2877,7 +2876,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE3F7534-EB9E-4F9F-87AB-E15B7AD38F40}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2995,11 +2994,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45AD05FF-222A-4A06-9207-E13ACE5060C0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3033,24 +3032,24 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="B3">
-        <v>0.20261690946442354</v>
+        <v>4.7647051077905678E-2</v>
       </c>
       <c r="C3">
-        <v>0.20140740249674263</v>
+        <v>5.3061384336615877E-2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="B4">
-        <v>0.16192639843947809</v>
+        <v>0.20261690946442354</v>
       </c>
       <c r="C4">
-        <v>0.18032677085918003</v>
+        <v>0.20140740249674263</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -3066,13 +3065,13 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B6">
-        <v>4.7647051077905678E-2</v>
+        <v>0.16192639843947809</v>
       </c>
       <c r="C6">
-        <v>5.3061384336615877E-2</v>
+        <v>0.18032677085918003</v>
       </c>
     </row>
   </sheetData>
@@ -3081,7 +3080,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D172E73-4115-49E2-8C9D-698B4B6ACBDC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3183,11 +3182,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21F44247-EA38-4014-BE18-0C8DA5FB450F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3301,7 +3300,7 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="C10" t="s">
         <v>14</v>
@@ -3312,7 +3311,7 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
         <v>14</v>
@@ -3334,7 +3333,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
         <v>14</v>
@@ -3357,11 +3356,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FD446F1-0E0E-4D5C-897F-E147827EE883}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3395,16 +3394,16 @@
         <v>43</v>
       </c>
       <c r="J1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K1" t="s">
         <v>15</v>
-      </c>
-      <c r="K1" t="s">
-        <v>44</v>
       </c>
       <c r="L1" t="s">
         <v>45</v>
       </c>
       <c r="M1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="N1" t="s">
         <v>16</v>
@@ -3439,16 +3438,16 @@
         <v>-0.34319048449093764</v>
       </c>
       <c r="J2">
+        <v>-0.28015538168763959</v>
+      </c>
+      <c r="K2">
         <v>-0.41010115388652973</v>
-      </c>
-      <c r="K2">
-        <v>2.9624440552832563E-2</v>
       </c>
       <c r="L2">
         <v>-0.17691263599522505</v>
       </c>
       <c r="M2">
-        <v>-0.28015538168763959</v>
+        <v>2.9624440552832563E-2</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -3483,16 +3482,16 @@
         <v>0.73842949585957562</v>
       </c>
       <c r="J3">
+        <v>0.73450022033566642</v>
+      </c>
+      <c r="K3">
         <v>0.71349853706241007</v>
-      </c>
-      <c r="K3">
-        <v>0.58139303333914849</v>
       </c>
       <c r="L3">
         <v>0.82623005712820619</v>
       </c>
       <c r="M3">
-        <v>0.73450022033566642</v>
+        <v>0.58139303333914849</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -3527,16 +3526,16 @@
         <v>-0.34807566388405237</v>
       </c>
       <c r="J4">
+        <v>-0.28156438156692476</v>
+      </c>
+      <c r="K4">
         <v>-0.41315037694604584</v>
-      </c>
-      <c r="K4">
-        <v>2.8032283844567397E-2</v>
       </c>
       <c r="L4">
         <v>-0.18234928199095313</v>
       </c>
       <c r="M4">
-        <v>-0.28156438156692476</v>
+        <v>2.8032283844567397E-2</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -3571,16 +3570,16 @@
         <v>-0.34411851259697773</v>
       </c>
       <c r="J5">
+        <v>-0.28693452726348623</v>
+      </c>
+      <c r="K5">
         <v>-0.41545176304356612</v>
-      </c>
-      <c r="K5">
-        <v>2.9739406440810256E-2</v>
       </c>
       <c r="L5">
         <v>-0.17832247139676755</v>
       </c>
       <c r="M5">
-        <v>-0.28693452726348623</v>
+        <v>2.9739406440810256E-2</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -3615,16 +3614,16 @@
         <v>-0.34700849855278881</v>
       </c>
       <c r="J6">
+        <v>-0.28443527118656947</v>
+      </c>
+      <c r="K6">
         <v>-0.41479234473771243</v>
-      </c>
-      <c r="K6">
-        <v>2.7234874888821762E-2</v>
       </c>
       <c r="L6">
         <v>-0.18262826722981038</v>
       </c>
       <c r="M6">
-        <v>-0.28443527118656947</v>
+        <v>2.7234874888821762E-2</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -3703,16 +3702,16 @@
         <v>0.78543195209789862</v>
       </c>
       <c r="J8">
+        <v>0.77999044320448574</v>
+      </c>
+      <c r="K8">
         <v>0.75063545367843221</v>
-      </c>
-      <c r="K8">
-        <v>0.58617947710198093</v>
       </c>
       <c r="L8">
         <v>0.85205939394916352</v>
       </c>
       <c r="M8">
-        <v>0.77999044320448574</v>
+        <v>0.58617947710198093</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -3747,16 +3746,16 @@
         <v>1.0000000000000002</v>
       </c>
       <c r="J9">
+        <v>0.8908994627619381</v>
+      </c>
+      <c r="K9">
         <v>0.8785317554075851</v>
-      </c>
-      <c r="K9">
-        <v>0.72568127768941804</v>
       </c>
       <c r="L9">
         <v>0.83136894829653574</v>
       </c>
       <c r="M9">
-        <v>0.8908994627619381</v>
+        <v>0.72568127768941804</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -3764,43 +3763,43 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="B10">
-        <v>-0.41010115388652973</v>
+        <v>-0.28015538168763959</v>
       </c>
       <c r="C10">
-        <v>0.71349853706241007</v>
+        <v>0.73450022033566642</v>
       </c>
       <c r="D10">
-        <v>-0.41315037694604584</v>
+        <v>-0.28156438156692476</v>
       </c>
       <c r="E10">
-        <v>-0.41545176304356612</v>
+        <v>-0.28693452726348623</v>
       </c>
       <c r="F10">
-        <v>-0.41479234473771243</v>
+        <v>-0.28443527118656947</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.75063545367843221</v>
+        <v>0.77999044320448574</v>
       </c>
       <c r="I10">
-        <v>0.8785317554075851</v>
+        <v>0.8908994627619381</v>
       </c>
       <c r="J10">
-        <v>1.0000000000000002</v>
+        <v>1</v>
       </c>
       <c r="K10">
-        <v>0.68093838344326807</v>
+        <v>0.84122704870802467</v>
       </c>
       <c r="L10">
-        <v>0.76831557343673462</v>
+        <v>0.82092681924692923</v>
       </c>
       <c r="M10">
-        <v>0.84122704870802467</v>
+        <v>0.65360264904246423</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -3808,43 +3807,43 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>2.9624440552832563E-2</v>
+        <v>-0.41010115388652973</v>
       </c>
       <c r="C11">
-        <v>0.58139303333914849</v>
+        <v>0.71349853706241007</v>
       </c>
       <c r="D11">
-        <v>2.8032283844567397E-2</v>
+        <v>-0.41315037694604584</v>
       </c>
       <c r="E11">
-        <v>2.9739406440810256E-2</v>
+        <v>-0.41545176304356612</v>
       </c>
       <c r="F11">
-        <v>2.7234874888821762E-2</v>
+        <v>-0.41479234473771243</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.58617947710198093</v>
+        <v>0.75063545367843221</v>
       </c>
       <c r="I11">
-        <v>0.72568127768941804</v>
+        <v>0.8785317554075851</v>
       </c>
       <c r="J11">
+        <v>0.84122704870802467</v>
+      </c>
+      <c r="K11">
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="L11">
+        <v>0.76831557343673462</v>
+      </c>
+      <c r="M11">
         <v>0.68093838344326807</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>0.72177693720786773</v>
-      </c>
-      <c r="M11">
-        <v>0.65360264904246423</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -3879,16 +3878,16 @@
         <v>0.83136894829653574</v>
       </c>
       <c r="J12">
+        <v>0.82092681924692923</v>
+      </c>
+      <c r="K12">
         <v>0.76831557343673462</v>
-      </c>
-      <c r="K12">
-        <v>0.72177693720786773</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.82092681924692923</v>
+        <v>0.72177693720786773</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -3896,40 +3895,40 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B13">
-        <v>-0.28015538168763959</v>
+        <v>2.9624440552832563E-2</v>
       </c>
       <c r="C13">
-        <v>0.73450022033566642</v>
+        <v>0.58139303333914849</v>
       </c>
       <c r="D13">
-        <v>-0.28156438156692476</v>
+        <v>2.8032283844567397E-2</v>
       </c>
       <c r="E13">
-        <v>-0.28693452726348623</v>
+        <v>2.9739406440810256E-2</v>
       </c>
       <c r="F13">
-        <v>-0.28443527118656947</v>
+        <v>2.7234874888821762E-2</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.77999044320448574</v>
+        <v>0.58617947710198093</v>
       </c>
       <c r="I13">
-        <v>0.8908994627619381</v>
+        <v>0.72568127768941804</v>
       </c>
       <c r="J13">
-        <v>0.84122704870802467</v>
+        <v>0.65360264904246423</v>
       </c>
       <c r="K13">
-        <v>0.65360264904246423</v>
+        <v>0.68093838344326807</v>
       </c>
       <c r="L13">
-        <v>0.82092681924692923</v>
+        <v>0.72177693720786773</v>
       </c>
       <c r="M13">
         <v>1</v>
@@ -3988,11 +3987,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D844A72-4DCA-4410-BA8A-3D7020172B23}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4069,10 +4068,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="B7">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="C7">
         <v>1.02</v>
@@ -4080,10 +4079,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="C8">
         <v>1.02</v>
@@ -4102,10 +4101,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B10">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="C10">
         <v>1.02</v>
@@ -4128,11 +4127,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2680E847-5D2B-4C25-916C-699E38D9C40C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4183,11 +4182,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{004C5978-1523-45E8-9638-ADDEC870128D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4234,25 +4233,34 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>46</v>
+      </c>
+      <c r="B7">
+        <v>1.4999999999999999E-2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>15</v>
+      </c>
+      <c r="B8">
+        <v>1.4999999999999999E-2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>45</v>
       </c>
+      <c r="B9">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B10">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">

--- a/data/mv_inputs/inputs_test.xlsx
+++ b/data/mv_inputs/inputs_test.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bloomberg\Documents\Projects\UPS_MV-git\data\mv_inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NVG9HXP\Documents\Projects\UPS_MV\data\mv_inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7D56732-6FE2-44BE-A1D9-DAB76059BA05}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fi" sheetId="8" r:id="rId1"/>
@@ -17,13 +18,12 @@
     <sheet name="rates_vol" sheetId="9" r:id="rId3"/>
     <sheet name="vol_defs" sheetId="1" r:id="rId4"/>
     <sheet name="corr" sheetId="3" r:id="rId5"/>
-    <sheet name="weights" sheetId="6" r:id="rId6"/>
-    <sheet name="ret_assump" sheetId="12" r:id="rId7"/>
-    <sheet name="mkt_factor_prem" sheetId="13" r:id="rId8"/>
+    <sheet name="ret_assump" sheetId="12" r:id="rId6"/>
+    <sheet name="mkt_factor_prem" sheetId="13" r:id="rId7"/>
   </sheets>
   <externalReferences>
+    <externalReference r:id="rId8"/>
     <externalReference r:id="rId9"/>
-    <externalReference r:id="rId10"/>
   </externalReferences>
   <definedNames>
     <definedName name="Covariance">'[1]Covariance Matrix'!$G$7:$Z$26</definedName>
@@ -37,21 +37,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="45">
   <si>
     <t>Fundamental Factor Group</t>
   </si>
@@ -86,9 +77,6 @@
     <t>Long Corporate</t>
   </si>
   <si>
-    <t>Ultra 30-Year UST Futures</t>
-  </si>
-  <si>
     <t>FI Strips</t>
   </si>
   <si>
@@ -155,12 +143,6 @@
     <t>Prospective Vol</t>
   </si>
   <si>
-    <t>Weights</t>
-  </si>
-  <si>
-    <t>Factor Loadings</t>
-  </si>
-  <si>
     <t>Asset/Liability</t>
   </si>
   <si>
@@ -192,12 +174,15 @@
   </si>
   <si>
     <t>Liquid Alternatives</t>
+  </si>
+  <si>
+    <t>Ultra 30Y Futures</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2876,10 +2861,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -2890,22 +2875,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
         <v>20</v>
       </c>
-      <c r="C1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>21</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>22</v>
-      </c>
-      <c r="F1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -2936,16 +2921,16 @@
         <v>25.46306899999999</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -2970,22 +2955,22 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="B5">
         <v>19.400993</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -2994,7 +2979,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3010,18 +2995,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
         <v>32</v>
-      </c>
-      <c r="B1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B2">
         <v>0.1489601559447962</v>
@@ -3032,7 +3017,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B3">
         <v>4.7647051077905678E-2</v>
@@ -3043,7 +3028,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4">
         <v>0.20261690946442354</v>
@@ -3054,7 +3039,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B5">
         <v>7.5167594241271826E-2</v>
@@ -3065,7 +3050,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B6">
         <v>0.16192639843947809</v>
@@ -3080,7 +3065,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3096,21 +3081,21 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
         <v>24</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>25</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>26</v>
-      </c>
-      <c r="E1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2">
         <v>21.791281711299785</v>
@@ -3127,7 +3112,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3">
         <v>61.391811839688827</v>
@@ -3144,7 +3129,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B4">
         <v>70.058702463221962</v>
@@ -3161,7 +3146,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B5">
         <v>80.113709997260258</v>
@@ -3182,11 +3167,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3256,7 +3241,7 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -3264,7 +3249,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
@@ -3275,7 +3260,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
@@ -3286,68 +3271,68 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" t="s">
         <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" t="s">
         <v>13</v>
-      </c>
-      <c r="B10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
         <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" t="s">
         <v>13</v>
-      </c>
-      <c r="B12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" t="s">
         <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -3356,11 +3341,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3382,7 +3367,7 @@
         <v>10</v>
       </c>
       <c r="F1" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="G1" t="s">
         <v>9</v>
@@ -3391,22 +3376,22 @@
         <v>10</v>
       </c>
       <c r="I1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" t="s">
         <v>43</v>
       </c>
-      <c r="J1" t="s">
-        <v>46</v>
-      </c>
       <c r="K1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N1" t="s">
         <v>15</v>
-      </c>
-      <c r="L1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M1" t="s">
-        <v>44</v>
-      </c>
-      <c r="N1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -3587,7 +3572,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="B6">
         <v>0.99933970592886723</v>
@@ -3719,7 +3704,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B9">
         <v>-0.34319048449093764</v>
@@ -3763,7 +3748,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B10">
         <v>-0.28015538168763959</v>
@@ -3807,7 +3792,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11">
         <v>-0.41010115388652973</v>
@@ -3851,7 +3836,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B12">
         <v>-0.17691263599522505</v>
@@ -3895,7 +3880,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B13">
         <v>2.9624440552832563E-2</v>
@@ -3939,7 +3924,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -3987,147 +3972,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2">
-        <v>-1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="C3">
-        <v>1.02</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="C4">
-        <v>1.02</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>1.02</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6">
-        <v>0.43</v>
-      </c>
-      <c r="C6">
-        <v>1.02</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7">
-        <v>0.09</v>
-      </c>
-      <c r="C7">
-        <v>1.02</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8">
-        <v>0.08</v>
-      </c>
-      <c r="C8">
-        <v>1.02</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9">
-        <v>0.05</v>
-      </c>
-      <c r="C9">
-        <v>1.02</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10">
-        <v>0.05</v>
-      </c>
-      <c r="C10">
-        <v>1.02</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11">
-        <v>0.02</v>
-      </c>
-      <c r="C11">
-        <v>1.02</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4141,12 +3986,12 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B2">
         <v>0.02</v>
@@ -4154,7 +3999,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B3">
         <v>0.04</v>
@@ -4162,7 +4007,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -4170,7 +4015,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B5">
         <v>0.75</v>
@@ -4181,12 +4026,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4197,10 +4042,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -4220,7 +4065,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="B5">
         <v>-0.02</v>
@@ -4228,12 +4073,12 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B7">
         <v>1.4999999999999999E-2</v>
@@ -4241,7 +4086,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8">
         <v>1.4999999999999999E-2</v>
@@ -4249,7 +4094,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B9">
         <v>0.01</v>
@@ -4257,7 +4102,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B10">
         <v>0.01</v>
@@ -4265,7 +4110,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/data/mv_inputs/inputs_test.xlsx
+++ b/data/mv_inputs/inputs_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NVG9HXP\Documents\Projects\UPS_MV\data\mv_inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7D56732-6FE2-44BE-A1D9-DAB76059BA05}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{810D7265-0750-453C-8F0B-65E13C28D9C0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fi" sheetId="8" r:id="rId1"/>
@@ -2864,7 +2864,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -3345,7 +3345,7 @@
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4030,8 +4030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4097,7 +4097,7 @@
         <v>42</v>
       </c>
       <c r="B9">
-        <v>0.01</v>
+        <v>1.9E-2</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -4105,7 +4105,7 @@
         <v>41</v>
       </c>
       <c r="B10">
-        <v>0.01</v>
+        <v>3.8999999999999998E-3</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">

--- a/data/mv_inputs/inputs_test.xlsx
+++ b/data/mv_inputs/inputs_test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NVG9HXP\Documents\Projects\UPS_MV\data\mv_inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RRQ1FYQ\Documents\UPS_MV\data\mv_inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{810D7265-0750-453C-8F0B-65E13C28D9C0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CFFE626-C132-4FD2-BE54-C4B335217F75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1050" yWindow="1545" windowWidth="19185" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fi" sheetId="8" r:id="rId1"/>
@@ -32,10 +32,19 @@
     <definedName name="Funded_Status_Loadings">'[1]Factor Loadings'!$B$8:$B$23</definedName>
     <definedName name="Liability_OAD">[1]Control!$B$6</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -192,12 +201,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -212,8 +227,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2864,8 +2880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2914,62 +2930,62 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3">
-        <v>25.46306899999999</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B3" s="1">
+        <v>23.423694000000001</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B4">
-        <v>15.451228999999993</v>
-      </c>
-      <c r="C4">
-        <v>1.2233859699999999E-2</v>
-      </c>
-      <c r="D4">
-        <v>175.01580594921191</v>
-      </c>
-      <c r="E4">
-        <v>55.145966989785123</v>
-      </c>
-      <c r="F4">
-        <v>122.33860015869141</v>
+      <c r="B4" s="1">
+        <v>12.544846</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1.846627E-2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>171.43180098552332</v>
+      </c>
+      <c r="E4" s="1">
+        <v>53.692261066701029</v>
+      </c>
+      <c r="F4" s="1">
+        <v>184.6627</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B5">
-        <v>19.400993</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B5" s="1">
+        <v>16.419921875</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="1" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3976,7 +3992,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3993,8 +4009,8 @@
       <c r="A2" t="s">
         <v>36</v>
       </c>
-      <c r="B2">
-        <v>0.02</v>
+      <c r="B2" s="1">
+        <v>3.9015000000000001E-2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -4030,8 +4046,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/mv_inputs/inputs_test.xlsx
+++ b/data/mv_inputs/inputs_test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NVG9HXP\Documents\Projects\UPS_MV\data\mv_inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RRQ1FYQ\Documents\UPS_MV\data\mv_inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{810D7265-0750-453C-8F0B-65E13C28D9C0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5C56FB3-85AA-427E-A76F-2B05ABAB24EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fi" sheetId="8" r:id="rId1"/>
@@ -32,10 +32,21 @@
     <definedName name="Funded_Status_Loadings">'[1]Factor Loadings'!$B$8:$B$23</definedName>
     <definedName name="Liability_OAD">[1]Control!$B$6</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -192,12 +203,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -212,8 +229,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2864,16 +2882,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -2893,7 +2911,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -2913,12 +2931,12 @@
         <v>88.722886355057341</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>9</v>
       </c>
       <c r="B3">
-        <v>25.46306899999999</v>
+        <v>23.273078999999999</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
@@ -2933,32 +2951,32 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>10</v>
       </c>
       <c r="B4">
-        <v>15.451228999999993</v>
+        <v>12.668424</v>
       </c>
       <c r="C4">
-        <v>1.2233859699999999E-2</v>
+        <v>1.132061E-2</v>
       </c>
       <c r="D4">
-        <v>175.01580594921191</v>
+        <v>165.94323712832238</v>
       </c>
       <c r="E4">
-        <v>55.145966989785123</v>
+        <v>50.524929419595544</v>
       </c>
       <c r="F4">
-        <v>122.33860015869141</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>113.20609999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>44</v>
       </c>
       <c r="B5">
-        <v>19.400993</v>
+        <v>16.484375</v>
       </c>
       <c r="C5" t="s">
         <v>17</v>
@@ -2986,14 +3004,14 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7265625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -3004,7 +3022,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -3015,7 +3033,7 @@
         <v>0.1813578792814477</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>43</v>
       </c>
@@ -3026,7 +3044,7 @@
         <v>5.3061384336615877E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -3037,7 +3055,7 @@
         <v>0.20140740249674263</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -3048,7 +3066,7 @@
         <v>8.3709201670707736E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>41</v>
       </c>
@@ -3072,14 +3090,14 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>23</v>
       </c>
@@ -3093,7 +3111,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -3110,7 +3128,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -3127,7 +3145,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -3144,7 +3162,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -3174,14 +3192,14 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3192,7 +3210,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -3203,7 +3221,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -3214,7 +3232,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -3225,7 +3243,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -3236,7 +3254,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -3247,7 +3265,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -3258,7 +3276,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -3269,7 +3287,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -3280,7 +3298,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -3291,7 +3309,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -3302,7 +3320,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -3313,7 +3331,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -3324,7 +3342,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -3348,12 +3366,12 @@
       <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>4</v>
       </c>
@@ -3394,7 +3412,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -3438,7 +3456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -3482,7 +3500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -3526,7 +3544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -3570,7 +3588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -3614,7 +3632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -3658,7 +3676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -3702,7 +3720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -3746,7 +3764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>43</v>
       </c>
@@ -3790,7 +3808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -3834,7 +3852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>42</v>
       </c>
@@ -3878,7 +3896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>41</v>
       </c>
@@ -3922,7 +3940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -3976,28 +3994,28 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="15.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>36</v>
       </c>
       <c r="B2">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.9428E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -4005,7 +4023,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>38</v>
       </c>
@@ -4013,7 +4031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>39</v>
       </c>
@@ -4030,17 +4048,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>33</v>
       </c>
@@ -4048,67 +4066,67 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>44</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>-0.02</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>43</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>14</v>
       </c>
-      <c r="B8">
-        <v>1.4999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>42</v>
       </c>
-      <c r="B9">
-        <v>1.9E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>41</v>
       </c>
-      <c r="B10">
-        <v>3.8999999999999998E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>15</v>
       </c>

--- a/data/mv_inputs/inputs_test.xlsx
+++ b/data/mv_inputs/inputs_test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RRQ1FYQ\Documents\UPS_MV\data\mv_inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maddi\Documents\UPS_MV\data\mv_inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5C56FB3-85AA-427E-A76F-2B05ABAB24EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BFFAEAE-EB4A-4126-8DDC-B599BCD3D17A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fi" sheetId="8" r:id="rId1"/>
@@ -250,7 +250,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Control"/>
@@ -2557,7 +2557,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Primitive Factor Input"/>
@@ -2584,9 +2584,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2624,7 +2624,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2730,7 +2730,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2872,7 +2872,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4000,6 +4000,7 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15.54296875" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
@@ -4011,8 +4012,8 @@
       <c r="A2" t="s">
         <v>36</v>
       </c>
-      <c r="B2">
-        <v>4.9428E-2</v>
+      <c r="B2" s="1">
+        <v>4.4310000000000002E-2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -4049,7 +4050,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/data/mv_inputs/inputs_test.xlsx
+++ b/data/mv_inputs/inputs_test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maddi\Documents\UPS_MV\data\mv_inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RRQ1FYQ\Documents\UPS_MV\data\mv_inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BFFAEAE-EB4A-4126-8DDC-B599BCD3D17A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6101032C-E1A3-434A-8838-F3A90DF7246F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fi" sheetId="8" r:id="rId1"/>
@@ -2584,9 +2584,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2624,7 +2624,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2730,7 +2730,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2872,7 +2872,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2886,12 +2886,12 @@
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -2911,7 +2911,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -2931,7 +2931,7 @@
         <v>88.722886355057341</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -2951,7 +2951,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -2971,7 +2971,7 @@
         <v>113.20609999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>44</v>
       </c>
@@ -3004,14 +3004,14 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -3022,7 +3022,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -3033,7 +3033,7 @@
         <v>0.1813578792814477</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>43</v>
       </c>
@@ -3044,7 +3044,7 @@
         <v>5.3061384336615877E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -3055,7 +3055,7 @@
         <v>0.20140740249674263</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -3066,7 +3066,7 @@
         <v>8.3709201670707736E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>41</v>
       </c>
@@ -3090,14 +3090,14 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="26.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>23</v>
       </c>
@@ -3111,7 +3111,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -3128,7 +3128,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -3145,7 +3145,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -3162,7 +3162,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -3192,14 +3192,14 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3210,7 +3210,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -3221,7 +3221,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -3232,7 +3232,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -3243,7 +3243,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -3254,7 +3254,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -3265,7 +3265,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -3276,7 +3276,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -3287,7 +3287,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -3298,7 +3298,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -3309,7 +3309,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -3320,7 +3320,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -3331,7 +3331,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -3342,7 +3342,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -3366,12 +3366,12 @@
       <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>4</v>
       </c>
@@ -3412,7 +3412,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -3456,7 +3456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -3500,7 +3500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -3544,7 +3544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -3588,7 +3588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -3676,7 +3676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -3720,7 +3720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -3764,7 +3764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>43</v>
       </c>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -3852,7 +3852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>42</v>
       </c>
@@ -3896,7 +3896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>41</v>
       </c>
@@ -3940,7 +3940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -3997,18 +3997,18 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.54296875" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>36</v>
       </c>
@@ -4016,7 +4016,7 @@
         <v>4.4310000000000002E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -4024,7 +4024,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>38</v>
       </c>
@@ -4032,7 +4032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>39</v>
       </c>
@@ -4050,16 +4050,16 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>33</v>
       </c>
@@ -4067,22 +4067,22 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>44</v>
       </c>
@@ -4090,12 +4090,12 @@
         <v>-0.02</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>43</v>
       </c>
@@ -4103,31 +4103,31 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>42</v>
       </c>
       <c r="B9" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>41</v>
       </c>
       <c r="B10" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+        <v>3.8999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>

--- a/data/mv_inputs/inputs_test.xlsx
+++ b/data/mv_inputs/inputs_test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RRQ1FYQ\Documents\UPS_MV\data\mv_inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://upsinc-my.sharepoint.com/personal/7317861_ups_com/Documents/Documents/UPS_MV/data/mv_inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6101032C-E1A3-434A-8838-F3A90DF7246F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="141" documentId="13_ncr:1_{48D89D39-53BD-4DCA-8D4A-1046E04FA460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5341EDBB-75D2-4DF3-9DBF-13DF4DB9CF2B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-15" windowWidth="29040" windowHeight="15840" tabRatio="804" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fi" sheetId="8" r:id="rId1"/>
@@ -20,10 +20,13 @@
     <sheet name="corr" sheetId="3" r:id="rId5"/>
     <sheet name="ret_assump" sheetId="12" r:id="rId6"/>
     <sheet name="mkt_factor_prem" sheetId="13" r:id="rId7"/>
+    <sheet name="Retirement illiquidity" sheetId="14" r:id="rId8"/>
+    <sheet name="Pension illiquidity" sheetId="16" r:id="rId9"/>
+    <sheet name="IBT illiquidity" sheetId="17" r:id="rId10"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId8"/>
-    <externalReference r:id="rId9"/>
+    <externalReference r:id="rId11"/>
+    <externalReference r:id="rId12"/>
   </externalReferences>
   <definedNames>
     <definedName name="Covariance">'[1]Covariance Matrix'!$G$7:$Z$26</definedName>
@@ -32,7 +35,7 @@
     <definedName name="Funded_Status_Loadings">'[1]Factor Loadings'!$B$8:$B$23</definedName>
     <definedName name="Liability_OAD">[1]Control!$B$6</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -53,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="46">
   <si>
     <t>Fundamental Factor Group</t>
   </si>
@@ -189,12 +192,19 @@
   <si>
     <t>Ultra 30Y Futures</t>
   </si>
+  <si>
+    <t>Illiquidity Penalty</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0.0000%"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,8 +212,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -216,8 +246,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -225,16 +261,55 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
+    <cellStyle name="Comma 2" xfId="5" xr:uid="{FCAE58E2-31E6-44B5-BF58-5A9078CE68DD}"/>
+    <cellStyle name="Comma 3" xfId="2" xr:uid="{9F648297-D323-4197-BEF0-04A3F4D4E17E}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="3" xr:uid="{16D0EA40-E1A3-41CC-97B2-3DCB0D638AA7}"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Percent 2" xfId="4" xr:uid="{BF79EF03-85AA-439C-938D-0CFCC126E2DF}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2996,6 +3071,186 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FB4BBA0-7176-49BD-BCA2-4A2F718620DC}">
+  <dimension ref="A1:G20"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="15.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="8">
+        <v>-3.4234145428675109E-4</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="8">
+        <v>-3.5375283609630936E-4</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="8">
+        <v>-1.8404276582455843E-4</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="8">
+        <v>-8.558536357168797E-4</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="8">
+        <v>-7.0750567219262121E-3</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="8">
+        <v>-3.7952430077501736E-3</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="8">
+        <v>-5.7855705774461112E-3</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+    </row>
+    <row r="17" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+    </row>
+    <row r="18" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+    </row>
+    <row r="19" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+    </row>
+    <row r="20" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C6"/>
@@ -3363,7 +3618,7 @@
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4047,92 +4302,549 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="10" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="C1" s="9"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B2" s="11"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B3" s="11"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B4" s="11"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="11">
         <v>-0.02</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="C5" s="9"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B6" s="11"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="11">
         <v>1.4999999999999999E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="C7" s="9"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="11">
         <v>1.4999999999999999E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="C8" s="9"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="11">
         <v>1.9E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="C9" s="9"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="11">
         <v>3.8999999999999998E-3</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="C10" s="9"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
         <v>15</v>
       </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+    </row>
+    <row r="17" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+    </row>
+    <row r="18" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+    </row>
+    <row r="19" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+    </row>
+    <row r="20" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+    </row>
+    <row r="21" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D97A809-327E-4975-B9BB-905472D8E909}">
+  <dimension ref="A1:F18"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="15.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="4">
+        <v>-3.5327209911647383E-4</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="4">
+        <v>-3.6504783575368952E-4</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="4">
+        <v>-1.8991908048501742E-4</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="4">
+        <v>-8.8318024779118667E-4</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="4">
+        <v>-7.3009567150738161E-3</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="4">
+        <v>-3.9164215937517906E-3</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="4">
+        <v>-5.9702984750684262E-3</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+    </row>
+    <row r="17" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+    </row>
+    <row r="18" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AE20DF1-97B3-479D-840E-BBCC1CDA421D}">
+  <dimension ref="A1:G19"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="15.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="6">
+        <v>-3.4211235376493265E-4</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="6">
+        <v>-3.535160988904303E-4</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="6">
+        <v>-1.8391960138402884E-4</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="6">
+        <v>-8.5528088441233366E-4</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="6">
+        <v>-7.070321977808631E-3</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="6">
+        <v>-3.7927031688185582E-3</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="6">
+        <v>-5.7816987786273796E-3</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+    </row>
+    <row r="17" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+    </row>
+    <row r="18" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+    </row>
+    <row r="19" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>